--- a/imageDatanewTEST.xlsx
+++ b/imageDatanewTEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4023339b229f8a2b/year 4 sem 1/image processing/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1236E8E-C9B3-4097-B898-2C047A171140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8248D5C-C4AD-40AA-A645-554508C89A2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{D1A0E781-7172-45F7-A3F8-390DEA46A675}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{FA1BBB73-3012-43A0-A9C7-5AF4C6047DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86949D59-A6B5-4792-95C7-34810BB9F6A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E7D9B-275F-41EE-8027-F43EB7DF79DA}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2037,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1B7437-AA18-4CBF-BEC9-D84F2411C9F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2565DD38-3D53-462F-B0D6-E10C3F8BDF58}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2049,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E315CA-F8AC-4698-83F8-E8DEC66B1870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C16780-28AE-4F6F-A388-E731FFBFB6F6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/imageDatanewTEST.xlsx
+++ b/imageDatanewTEST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4023339b229f8a2b/year 4 sem 1/image processing/assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanli\OneDrive\year 4 sem 1\image processing\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8248D5C-C4AD-40AA-A645-554508C89A2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFEEDA8-1F55-4A4D-B79B-7D8557708FE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{FA1BBB73-3012-43A0-A9C7-5AF4C6047DDB}"/>
   </bookViews>

--- a/imageDatanewTEST.xlsx
+++ b/imageDatanewTEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanli\OneDrive\year 4 sem 1\image processing\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4023339b229f8a2b/year 4 sem 1/image processing/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFEEDA8-1F55-4A4D-B79B-7D8557708FE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{945DB62B-1E6F-4626-8AB9-4081640FF98B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{FA1BBB73-3012-43A0-A9C7-5AF4C6047DDB}"/>
   </bookViews>

--- a/imageDatanewTEST.xlsx
+++ b/imageDatanewTEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4023339b229f8a2b/year 4 sem 1/image processing/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{945DB62B-1E6F-4626-8AB9-4081640FF98B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8CCFFB6B-A345-4C2E-A617-B789C333177E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{FA1BBB73-3012-43A0-A9C7-5AF4C6047DDB}"/>
   </bookViews>
